--- a/Agile-PMS.xlsx
+++ b/Agile-PMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20FD4E8-F3A6-4BDA-872A-3BAA3801BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18325CB9-CCB4-4309-AA93-8142561E224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9C77501-4EB8-45A2-A27E-D4C3A347A287}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>User Story</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Team Name</t>
+  </si>
+  <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>Paymemt Integration</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -334,11 +340,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,6 +447,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +797,7 @@
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,9 +911,13 @@
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -897,10 +963,10 @@
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="11"/>
     </row>
@@ -943,14 +1009,14 @@
       <c r="D12" s="17"/>
       <c r="E12" s="19"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,8 +1031,8 @@
       <c r="D13" s="17"/>
       <c r="E13" s="19"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -985,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="1" t="s">
         <v>14</v>
       </c>
